--- a/biology/Zoologie/Gephyromantis_salegy/Gephyromantis_salegy.xlsx
+++ b/biology/Zoologie/Gephyromantis_salegy/Gephyromantis_salegy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Gephyromantis salegy est une espèce d'amphibiens de la famille des Mantellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gephyromantis salegy est une espèce d'amphibiens de la famille des Mantellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 500 et 1 000 m d'altitude dans le nord-est de l'île, entre la Réserve spéciale d'Anjanaharibe-Sud et la presqu'île de Masoala[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Madagascar. Elle se rencontre entre 500 et 1 000 m d'altitude dans le nord-est de l'île, entre la Réserve spéciale d'Anjanaharibe-Sud et la presqu'île de Masoala,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 3 spécimens mâles adultes observés lors de la description originale mesurent entre 45,8 mm et 47,8 mm de longueur standard et les 4 spécimens femelles adultes observés lors de la description originale mesurent entre 44,6 mm et 50,1 mm de longueur standard[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 3 spécimens mâles adultes observés lors de la description originale mesurent entre 45,8 mm et 47,8 mm de longueur standard et les 4 spécimens femelles adultes observés lors de la description originale mesurent entre 44,6 mm et 50,1 mm de longueur standard.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du malgache salegy, désignant une musique traditionnelle du Nord de Madagascar, lui a été donné en référence à son chant rythmé ainsi qu'à sa distribution dans le nord de l'île[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du malgache salegy, désignant une musique traditionnelle du Nord de Madagascar, lui a été donné en référence à son chant rythmé ainsi qu'à sa distribution dans le nord de l'île.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Andreone, Aprea, Vences &amp; Odierna, 2003 : A new frog of the genus Mantidactylus from the rainforests of north-eastern. Amphibia-Reptilia, vol. 24, p. 285-303 (texte intégral).</t>
         </is>
